--- a/datf_core/test/testprotocol/fewtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/fewtestprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6C3B88-292D-4C6E-A763-80EA3828992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE911EB0-7DAE-4243-BAE2-4A25724B786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Sno.</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>testcase33_adls_parquet_adls_csv_auto</t>
+  </si>
+  <si>
+    <t>testcase34_delta_parquet_auto</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,12 +178,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -201,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,7 +569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -588,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C4" si="0">_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
+        <f t="shared" ref="C2:C5" si="0">_xlfn.CONCAT("test/testcases/",B2,".xlsx")</f>
         <v>test/testcases/testcase31_delta_parquet_manual.xlsx</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -623,6 +640,21 @@
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>test/testcases/testcase34_delta_parquet_auto.xlsx</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
